--- a/biology/Médecine/1166_en_santé_et_médecine/1166_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1166_en_santé_et_médecine/1166_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1166_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1166_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1166 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1166_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1166_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un hôpital est mentionné pour la première fois à Changy, dans le comté de Forez, sur la route de Saint-Haon-le-Châtel au Crozet[1].
-Les confrères du pont de Maupas tiennent un hôpital à côté de l'ouvrage qu'ils construisent sur la Durance[2].
-Un hôpital placé sous le patronage de Marie-Madeleine est attesté à Vivans dans le diocèse de Clermont, en Forez, dans une charte accordée par le roi Louis VII[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un hôpital est mentionné pour la première fois à Changy, dans le comté de Forez, sur la route de Saint-Haon-le-Châtel au Crozet.
+Les confrères du pont de Maupas tiennent un hôpital à côté de l'ouvrage qu'ils construisent sur la Durance.
+Un hôpital placé sous le patronage de Marie-Madeleine est attesté à Vivans dans le diocèse de Clermont, en Forez, dans une charte accordée par le roi Louis VII.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1166_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1166_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1111-1166 : Adélard de Bath, philosophe, mathématicien et naturaliste anglais, rédige des Quaestiones naturales où il traite, entre autres domaines, « de la physiologie humaine, de l'anatomie et de la psychologie des sensations », et où « il donne ses explications comme le fruit de son initiation à la science arabe, en même temps que le résultat de ses recherches personnelles[4] ».
-1161-1166 : Averroès rédige la première version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont il donnera une seconde version en 1194[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1111-1166 : Adélard de Bath, philosophe, mathématicien et naturaliste anglais, rédige des Quaestiones naturales où il traite, entre autres domaines, « de la physiologie humaine, de l'anatomie et de la psychologie des sensations », et où « il donne ses explications comme le fruit de son initiation à la science arabe, en même temps que le résultat de ses recherches personnelles ».
+1161-1166 : Averroès rédige la première version de son Kitab al-kulliyat fil-tibb (« Livre des généralités sur la médecine »), également connu sous le titre de Colliget et dont il donnera une seconde version en 1194.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1166_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1166_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fl. Raoul de Sulminiaco, médecin, témoin dans un acte passé entre le couvent d'Ébreuil et l'archevêque de Bourges[6].
-1166-1178 : fl. Gautier, médecin « habile et réputé », intercesseur pour l'abbaye prémontrée de Saint-Yved de Braine en Champagne « auprès de Raoul de Coucy et du comte de Boulogne, puis auprès de Gérard de Quierzy[7], comme aussi de Saint-Crépin de Soissons[8] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fl. Raoul de Sulminiaco, médecin, témoin dans un acte passé entre le couvent d'Ébreuil et l'archevêque de Bourges.
+1166-1178 : fl. Gautier, médecin « habile et réputé », intercesseur pour l'abbaye prémontrée de Saint-Yved de Braine en Champagne « auprès de Raoul de Coucy et du comte de Boulogne, puis auprès de Gérard de Quierzy, comme aussi de Saint-Crépin de Soissons ».
 </t>
         </is>
       </c>
